--- a/biology/Zoologie/Diurne_(comportement_animal)/Diurne_(comportement_animal).xlsx
+++ b/biology/Zoologie/Diurne_(comportement_animal)/Diurne_(comportement_animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un animal est dit diurne lorsqu'il est actif le jour. On l'oppose au comportement nocturne. Ces comportements sont décrits dans le cadre de la branche de la zoologie appelée éthologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Comportements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Certaines espèces sont des diurnes stricts, qui ne présentent aucune activité durant la nuit.
 Certains animaux peuvent changer de cycle en fonction des conditions. C'est par exemple le cas d'espèces vivant dans des zones ayant des saisons variables, mais parfois aussi des zones très marquées là où habitent leurs ennemis : des hommes et des carnivores : les animaux diurnes peuvent devenir nocturnes pour éviter les fortes chaleurs de la journée, et surveiller si oui ou non, les chasseurs ou les prédateurs les attaquent. À l'inverse, les animaux nocturnes peuvent devenir diurnes pour profiter de la chaleur des journées durant l'hiver.
@@ -548,7 +562,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la zoologie                     </t>
